--- a/Documentation/RNA_modeling_properties.xlsx
+++ b/Documentation/RNA_modeling_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banderso2/Documents/Office/Latha's work/Drivetrain Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banderso2/Documents/Office/15MW/Drivetrain Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8DE9C7-3F7C-E240-AEEB-1E73A012CD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EA351-88D5-9B46-8323-6693A8C2A650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
+    <workbookView xWindow="-38400" yWindow="580" windowWidth="38400" windowHeight="19600" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t xml:space="preserve">HubMass     </t>
   </si>
@@ -262,6 +264,32 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t>calculated by K=J⍵</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>~0</t>
   </si>
 </sst>
 </file>
@@ -269,11 +297,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -308,6 +357,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,39 +406,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,8 +465,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152737</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>30832</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>183232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -743,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4482DD-C7A9-4488-B769-C91931618407}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
@@ -757,1034 +815,1036 @@
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="16">
+      <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="15">
-        <v>49999</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="10">
+        <f>39433.565</f>
+        <v>39433.565000000002</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8">
-        <f>2.74</f>
-        <v>2.74</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="17">
+        <f>4.34781123</f>
+        <v>4.3478112299999996</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="16">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>13362</f>
         <v>13362</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9">
-        <v>10.449</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="18">
+        <v>11.35271202</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="16">
+      <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <v>226700</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="18">
         <v>0.38</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="16">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>145250</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="16">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>4699</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="16">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1">
         <v>4699</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="16">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="8">
         <v>100000</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="14">
         <f>B11</f>
-        <v>188000</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>190000</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="16">
+      <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="8">
         <v>19504</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="10">
-        <f>764518</f>
-        <v>764518</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="15">
+        <v>1373471.226</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="16">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1">
-        <v>188000</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13">
+        <v>190000</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="15">
         <f xml:space="preserve"> 4716092+ 3292558</f>
         <v>8008650</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="16">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="8">
         <v>204000</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="9">
-        <v>-5.0190000000000001</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="16">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="16">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="8">
         <v>50000</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="16">
+      <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="16">
-        <v>1738.64</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="9">
+        <f>3627.46</f>
+        <v>3627.46</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="9">
-        <f>2.974</f>
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="16">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="16">
+      <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <f>SUM(B3:B14)</f>
-        <v>1007951.64</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>1001275.0249999999</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="9">
-        <f>515952</f>
-        <v>515952</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="15">
+        <f>507275.04</f>
+        <v>507275.04</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5">
-        <f xml:space="preserve"> 20636273</f>
-        <v>20636273</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="21">
+        <f xml:space="preserve"> 19617857.267</f>
+        <v>19617857.267000001</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="21">
         <f>B9</f>
         <v>100000</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="16">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="16">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="9">
-        <v>-6.5570000000000004</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="25">
+        <v>6.8529999999999998</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="16">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="26">
         <v>0</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" ht="16">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="11">
-        <f>2.989</f>
-        <v>2.9889999999999999</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="25">
+        <v>4.351</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="11">
-        <f>20554081+374349414</f>
-        <v>394903495</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="22">
+        <f>26505193.242+374349414</f>
+        <v>400854607.24199998</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="16">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="11">
-        <f>74318789+178808930</f>
-        <v>253127719</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="22">
+        <f xml:space="preserve"> 60244378.133+178808930</f>
+        <v>239053308.13300002</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="16">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="11">
-        <f xml:space="preserve"> 64520812+140448150</f>
-        <v>204968962</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="22">
+        <f>44447135.39+140448150</f>
+        <v>184895285.38999999</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" ht="16">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="11">
-        <f>-28044</f>
-        <v>-28044</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="24">
+        <v>20.763999999999999</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="J25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" ht="16">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="11">
-        <f>23775245</f>
-        <v>23775245</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="24">
+        <v>23356749.076000001</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" ht="16">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="11">
-        <f xml:space="preserve">  -12246</f>
-        <v>-12246</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="24">
+        <v>23.878</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="J27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" ht="16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" ht="16">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="11">
-        <v>-6.1379999999999999</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="H29" s="22">
+        <v>-5.9710000000000001</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" ht="16">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="12">
-        <f xml:space="preserve"> 9960034</f>
-        <v>9960034</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="H30" s="22">
+        <f xml:space="preserve"> 10855262.338</f>
+        <v>10855262.338</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" ht="16">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="13">
-        <f xml:space="preserve">  7127012</f>
-        <v>7127012</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="H31" s="23">
+        <f xml:space="preserve">   8450907.645</f>
+        <v>8450907.6449999996</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
+      <c r="J31" s="7"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="16">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="11">
-        <f xml:space="preserve"> 9465924</f>
-        <v>9465924</v>
-      </c>
-      <c r="I32" s="12" t="s">
+      <c r="H32" s="20">
+        <f xml:space="preserve"> 8381527.92</f>
+        <v>8381527.9199999999</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" ht="16">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" ht="16">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" ht="20">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="17">
-        <v>1354368531.9601502</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="H35" s="20">
+        <v>14088839309.283863</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="J35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" ht="16">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12" t="s">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="J36" s="7"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="16">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12" t="s">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="16">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="16">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" ht="16">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" ht="16">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" ht="16">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" ht="16">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/RNA_modeling_properties.xlsx
+++ b/Documentation/RNA_modeling_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banderso2/Documents/Office/15MW/Drivetrain Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egaertne\IEA-15-240-RWT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EA351-88D5-9B46-8323-6693A8C2A650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F756B8-E5EB-441F-9483-9ED1031C3FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="580" windowWidth="38400" windowHeight="19600" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
+    <workbookView xWindow="32160" yWindow="3360" windowWidth="21600" windowHeight="11265" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -296,8 +294,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -406,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,8 +420,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -436,6 +433,12 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +467,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152737</xdr:colOff>
+      <xdr:colOff>101937</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>183232</xdr:rowOff>
     </xdr:to>
@@ -799,23 +802,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4482DD-C7A9-4488-B769-C91931618407}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.1640625" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.1796875" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:15" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -832,7 +836,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="16">
+    <row r="2" spans="1:15" ht="15.5">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -853,7 +857,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="16">
+    <row r="3" spans="1:15" ht="15.5">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -870,7 +874,7 @@
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f>4.34781123</f>
         <v>4.3478112299999996</v>
       </c>
@@ -886,7 +890,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="16">
+    <row r="4" spans="1:15" ht="15.5">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -903,7 +907,7 @@
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>11.35271202</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -918,7 +922,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="16">
+    <row r="5" spans="1:15" ht="15.5">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -934,7 +938,7 @@
       <c r="G5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>0.38</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -947,7 +951,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="16">
+    <row r="6" spans="1:15" ht="15.5">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -970,7 +974,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="16">
+    <row r="7" spans="1:15" ht="15.5">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -986,7 +990,7 @@
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -995,7 +999,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="16">
+    <row r="8" spans="1:15" ht="15.5">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1015,7 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1020,7 +1024,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="16">
+    <row r="9" spans="1:15" ht="15.5">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="G9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="28">
         <f>B11</f>
         <v>190000</v>
       </c>
@@ -1050,7 +1054,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15" ht="15.5">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -1066,7 +1070,7 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>1373471.226</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1079,7 +1083,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="16">
+    <row r="11" spans="1:15" ht="15.5">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1099,7 @@
       <c r="G11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="25">
         <f xml:space="preserve"> 4716092+ 3292558</f>
         <v>8008650</v>
       </c>
@@ -1109,12 +1113,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="16">
+    <row r="12" spans="1:15" ht="15.5">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8">
-        <v>204000</v>
+        <v>191335.49077422</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>44</v>
@@ -1140,7 +1144,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="16">
+    <row r="13" spans="1:15" ht="15.5">
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1160,7 @@
       <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="25">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1171,7 +1175,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="16">
+    <row r="14" spans="1:15" ht="15.5">
       <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
@@ -1203,24 +1207,24 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="16">
+    <row r="15" spans="1:15" ht="15.5">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="9">
         <f>SUM(B3:B14)</f>
-        <v>1001275.0249999999</v>
+        <v>988610.51577421988</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="25">
         <f>507275.04</f>
         <v>507275.04</v>
       </c>
@@ -1236,7 +1240,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="16">
+    <row r="16" spans="1:15" ht="15.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1246,7 +1250,7 @@
       <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="26">
         <f xml:space="preserve"> 19617857.267</f>
         <v>19617857.267000001</v>
       </c>
@@ -1262,7 +1266,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="16">
+    <row r="17" spans="1:15" ht="15.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1272,7 +1276,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="27">
         <f>B9</f>
         <v>100000</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="16">
+    <row r="18" spans="1:15" ht="15.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1296,7 +1300,7 @@
       <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1305,7 +1309,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="16">
+    <row r="19" spans="1:15" ht="15.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1315,7 +1319,7 @@
       <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="23">
         <v>6.8529999999999998</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1330,7 +1334,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="16">
+    <row r="20" spans="1:15" ht="15.5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1340,7 +1344,7 @@
       <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -1353,7 +1357,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="16">
+    <row r="21" spans="1:15" ht="15.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1363,7 +1367,7 @@
       <c r="G21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <v>4.351</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -1376,7 +1380,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="16">
+    <row r="22" spans="1:15" ht="15.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1386,7 +1390,7 @@
       <c r="G22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <f>26505193.242+374349414</f>
         <v>400854607.24199998</v>
       </c>
@@ -1400,7 +1404,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="16">
+    <row r="23" spans="1:15" ht="15.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1410,7 +1414,7 @@
       <c r="G23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <f xml:space="preserve"> 60244378.133+178808930</f>
         <v>239053308.13300002</v>
       </c>
@@ -1424,7 +1428,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="16">
+    <row r="24" spans="1:15" ht="15.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1434,7 +1438,7 @@
       <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <f>44447135.39+140448150</f>
         <v>184895285.38999999</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="16">
+    <row r="25" spans="1:15" ht="15.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1458,7 +1462,7 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>20.763999999999999</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -1473,7 +1477,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="16">
+    <row r="26" spans="1:15" ht="15.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1483,7 +1487,7 @@
       <c r="G26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <v>23356749.076000001</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -1496,7 +1500,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="16">
+    <row r="27" spans="1:15" ht="15.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1506,7 +1510,7 @@
       <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <v>23.878</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -1521,7 +1525,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="16">
+    <row r="28" spans="1:15" ht="15.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1531,7 +1535,7 @@
       <c r="G28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="4"/>
@@ -1540,7 +1544,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="16">
+    <row r="29" spans="1:15" ht="15.5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1550,7 +1554,7 @@
       <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="20">
         <v>-5.9710000000000001</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -1563,7 +1567,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="16">
+    <row r="30" spans="1:15" ht="15.5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1573,7 +1577,7 @@
       <c r="G30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="20">
         <f xml:space="preserve"> 10855262.338</f>
         <v>10855262.338</v>
       </c>
@@ -1589,7 +1593,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="16">
+    <row r="31" spans="1:15" ht="15.5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1599,7 +1603,7 @@
       <c r="G31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <f xml:space="preserve">   8450907.645</f>
         <v>8450907.6449999996</v>
       </c>
@@ -1613,7 +1617,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="16">
+    <row r="32" spans="1:15" ht="15.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1623,7 +1627,7 @@
       <c r="G32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <f xml:space="preserve"> 8381527.92</f>
         <v>8381527.9199999999</v>
       </c>
@@ -1637,7 +1641,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="16">
+    <row r="33" spans="1:15" ht="15.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1645,7 +1649,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="4"/>
@@ -1654,7 +1658,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="16">
+    <row r="34" spans="1:15" ht="15.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1664,7 +1668,7 @@
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
@@ -1673,7 +1677,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="20">
+    <row r="35" spans="1:15" ht="19">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1683,7 +1687,7 @@
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>14088839309.283863</v>
       </c>
       <c r="I35" s="7" t="s">
@@ -1698,7 +1702,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="16">
+    <row r="36" spans="1:15" ht="15.5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1719,7 +1723,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="16">
+    <row r="37" spans="1:15" ht="15.5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1740,7 +1744,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="16">
+    <row r="38" spans="1:15" ht="15.5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1761,7 +1765,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="16">
+    <row r="39" spans="1:15" ht="15.5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1778,7 +1782,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="16">
+    <row r="40" spans="1:15" ht="15.5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1795,7 +1799,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="16">
+    <row r="41" spans="1:15" ht="15.5">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1812,7 +1816,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="16">
+    <row r="42" spans="1:15" ht="15.5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1829,7 +1833,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="16">
+    <row r="43" spans="1:15" ht="15.5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1846,6 +1850,9 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
+    <row r="44" spans="1:15">
+      <c r="H44" s="29"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/RNA_modeling_properties.xlsx
+++ b/Documentation/RNA_modeling_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egaertne\IEA-15-240-RWT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F756B8-E5EB-441F-9483-9ED1031C3FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51748684-B5F3-4EC2-B2D7-D662740FA774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="3360" windowWidth="21600" windowHeight="11265" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,9 +467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>101937</xdr:colOff>
+      <xdr:colOff>105112</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>183232</xdr:rowOff>
+      <xdr:rowOff>180057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,7 +805,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1118,7 +1118,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="8">
-        <v>191335.49077422</v>
+        <v>195760.42804389002</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>44</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B15" s="9">
         <f>SUM(B3:B14)</f>
-        <v>988610.51577421988</v>
+        <v>993035.45304388995</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>44</v>

--- a/Documentation/RNA_modeling_properties.xlsx
+++ b/Documentation/RNA_modeling_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egaertne\IEA-15-240-RWT\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banderso2/Documents/Office/15MW/Drivetrain Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51748684-B5F3-4EC2-B2D7-D662740FA774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEF134F-C11F-3347-8906-9623DA951E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -294,13 +296,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -407,38 +422,38 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,9 +482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>105112</xdr:colOff>
+      <xdr:colOff>152737</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>180057</xdr:rowOff>
+      <xdr:rowOff>183232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,24 +817,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4482DD-C7A9-4488-B769-C91931618407}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.1796875" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.1640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -836,7 +850,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="15.5">
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -857,7 +871,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="15.5">
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -874,7 +888,7 @@
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="17">
         <f>4.34781123</f>
         <v>4.3478112299999996</v>
       </c>
@@ -890,7 +904,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="15.5">
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -907,8 +921,8 @@
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="16">
-        <v>11.35271202</v>
+      <c r="H4" s="27">
+        <v>11.07511051</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>71</v>
@@ -922,7 +936,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="15.5">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -938,7 +952,7 @@
       <c r="G5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="18">
         <v>0.38</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -951,7 +965,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="15.5">
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -965,7 +979,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -974,7 +988,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="15.5">
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -990,7 +1004,7 @@
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -999,7 +1013,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="15.5">
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1029,7 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1024,7 +1038,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="15.5">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1054,7 @@
       <c r="G9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="14">
         <f>B11</f>
         <v>190000</v>
       </c>
@@ -1054,7 +1068,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15.5">
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -1070,7 +1084,7 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>1373471.226</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1083,7 +1097,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15.5">
+    <row r="11" spans="1:15" ht="16">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -1099,7 +1113,7 @@
       <c r="G11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="15">
         <f xml:space="preserve"> 4716092+ 3292558</f>
         <v>8008650</v>
       </c>
@@ -1113,12 +1127,13 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15.5">
+    <row r="12" spans="1:15" ht="16">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8">
-        <v>195760.42804389002</v>
+      <c r="B12" s="28">
+        <f>3*65252.41879545</f>
+        <v>195757.25638635</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>44</v>
@@ -1144,11 +1159,11 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15.5">
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="29">
         <v>50000</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1160,7 +1175,7 @@
       <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1175,7 +1190,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.5">
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
@@ -1207,24 +1222,24 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.5">
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="9">
         <f>SUM(B3:B14)</f>
-        <v>993035.45304388995</v>
+        <v>993032.28138634993</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="15">
         <f>507275.04</f>
         <v>507275.04</v>
       </c>
@@ -1240,7 +1255,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.5">
+    <row r="16" spans="1:15" ht="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1250,7 +1265,7 @@
       <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="21">
         <f xml:space="preserve"> 19617857.267</f>
         <v>19617857.267000001</v>
       </c>
@@ -1266,7 +1281,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="15.5">
+    <row r="17" spans="1:15" ht="16">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1276,7 +1291,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="21">
         <f>B9</f>
         <v>100000</v>
       </c>
@@ -1290,7 +1305,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="15.5">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1300,7 +1315,7 @@
       <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1309,7 +1324,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="15.5">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1319,8 +1334,8 @@
       <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="23">
-        <v>6.8529999999999998</v>
+      <c r="H19" s="30">
+        <v>6.8159999999999998</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>57</v>
@@ -1334,7 +1349,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15.5">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1344,7 +1359,7 @@
       <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="26">
         <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -1357,7 +1372,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15.5">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1367,8 +1382,8 @@
       <c r="G21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="23">
-        <v>4.351</v>
+      <c r="H21" s="25">
+        <v>4.3410000000000002</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>57</v>
@@ -1380,7 +1395,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.5">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1390,9 +1405,9 @@
       <c r="G22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="20">
-        <f>26505193.242+374349414</f>
-        <v>400854607.24199998</v>
+      <c r="H22" s="22">
+        <f>32502140+337811351</f>
+        <v>370313491</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>56</v>
@@ -1404,7 +1419,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="15.5">
+    <row r="23" spans="1:15" ht="16">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1414,9 +1429,9 @@
       <c r="G23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="20">
-        <f xml:space="preserve"> 60244378.133+178808930</f>
-        <v>239053308.13300002</v>
+      <c r="H23" s="22">
+        <f xml:space="preserve"> 91195648+161356433</f>
+        <v>252552081</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>56</v>
@@ -1428,7 +1443,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="15.5">
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1438,9 +1453,9 @@
       <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="20">
-        <f>44447135.39+140448150</f>
-        <v>184895285.38999999</v>
+      <c r="H24" s="22">
+        <f>69402241+126739825</f>
+        <v>196142066</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>56</v>
@@ -1452,7 +1467,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="15.5">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1462,7 +1477,7 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="24">
         <v>20.763999999999999</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -1477,7 +1492,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="15.5">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1487,8 +1502,8 @@
       <c r="G26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="22">
-        <v>23356749.076000001</v>
+      <c r="H26" s="24">
+        <v>35589092</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>56</v>
@@ -1500,7 +1515,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="15.5">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1510,7 +1525,7 @@
       <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="24">
         <v>23.878</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -1525,7 +1540,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15.5">
+    <row r="28" spans="1:15" ht="16">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1535,7 +1550,7 @@
       <c r="G28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="4"/>
@@ -1544,7 +1559,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="15.5">
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1554,7 +1569,7 @@
       <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="22">
         <v>-5.9710000000000001</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -1567,7 +1582,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="15.5">
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1577,7 +1592,7 @@
       <c r="G30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="22">
         <f xml:space="preserve"> 10855262.338</f>
         <v>10855262.338</v>
       </c>
@@ -1593,7 +1608,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="15.5">
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1603,7 +1618,7 @@
       <c r="G31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="23">
         <f xml:space="preserve">   8450907.645</f>
         <v>8450907.6449999996</v>
       </c>
@@ -1617,7 +1632,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="15.5">
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1627,7 +1642,7 @@
       <c r="G32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="20">
         <f xml:space="preserve"> 8381527.92</f>
         <v>8381527.9199999999</v>
       </c>
@@ -1641,7 +1656,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="15.5">
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1649,7 +1664,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="4"/>
@@ -1658,7 +1673,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="15.5">
+    <row r="34" spans="1:15" ht="16">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1668,7 +1683,7 @@
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
@@ -1677,7 +1692,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="19">
+    <row r="35" spans="1:15" ht="20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1687,7 +1702,7 @@
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="20">
         <v>14088839309.283863</v>
       </c>
       <c r="I35" s="7" t="s">
@@ -1702,7 +1717,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="15.5">
+    <row r="36" spans="1:15" ht="16">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1723,7 +1738,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="15.5">
+    <row r="37" spans="1:15" ht="16">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1744,7 +1759,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="15.5">
+    <row r="38" spans="1:15" ht="16">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1765,7 +1780,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="15.5">
+    <row r="39" spans="1:15" ht="16">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1782,7 +1797,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="15.5">
+    <row r="40" spans="1:15" ht="16">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1799,7 +1814,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="15.5">
+    <row r="41" spans="1:15" ht="16">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1816,7 +1831,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15.5">
+    <row r="42" spans="1:15" ht="16">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1833,7 +1848,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="15.5">
+    <row r="43" spans="1:15" ht="16">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1850,9 +1865,6 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15">
-      <c r="H44" s="29"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/RNA_modeling_properties.xlsx
+++ b/Documentation/RNA_modeling_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbarter/systems/referenceTurbines/15mw/IEA-15-240-RWT/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA95F54F-75EA-2E4D-AF26-98F6AA496C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F582F-505C-684B-83D9-FEB0F59EFF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
+    <workbookView xWindow="14520" yWindow="8540" windowWidth="33600" windowHeight="19200" xr2:uid="{F4F21123-4A90-4967-8B8F-5B3BBB50E9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t xml:space="preserve">HubMass     </t>
   </si>
@@ -134,33 +134,12 @@
     <t>Mass and Inertia</t>
   </si>
   <si>
-    <t>Bedplate</t>
-  </si>
-  <si>
     <t>Nose</t>
   </si>
   <si>
-    <t>Rotor</t>
-  </si>
-  <si>
-    <t>Yaw bearing</t>
-  </si>
-  <si>
     <t>Shaft</t>
   </si>
   <si>
-    <t>Hub</t>
-  </si>
-  <si>
-    <t>Misc Equipment</t>
-  </si>
-  <si>
-    <t>Gen Rotor</t>
-  </si>
-  <si>
-    <t>Gen Stator</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
     <t>It includes all mass contained in NacMass</t>
   </si>
   <si>
-    <t>From CAD</t>
-  </si>
-  <si>
     <t>Ixx_RNA</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>side-side non-rotating nacelle inertia about [NacCMxn, NacCMyn, NacCMzn] [kg-m^2]</t>
   </si>
   <si>
-    <t>Flange</t>
-  </si>
-  <si>
     <t>Distance from yaw axis to rotor apex (meters)</t>
   </si>
   <si>
@@ -255,9 +228,6 @@
   </si>
   <si>
     <t>Yaw bearing Height</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <r>
@@ -291,17 +261,64 @@
   <si>
     <t>SRB Shaft Bearing</t>
   </si>
+  <si>
+    <t>Nacelle Mass from WISDEM</t>
+  </si>
+  <si>
+    <t>Yaw system</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>Hub system</t>
+  </si>
+  <si>
+    <t>Blades</t>
+  </si>
+  <si>
+    <t>Power electronics</t>
+  </si>
+  <si>
+    <t>Brake</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Bedplate, platform</t>
+  </si>
+  <si>
+    <t>Above yaw total</t>
+  </si>
+  <si>
+    <t>Nacelle total</t>
+  </si>
+  <si>
+    <t>RNA total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -388,47 +405,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,14 +477,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603517</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>183232</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,8 +507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3149600"/>
-          <a:ext cx="4292937" cy="5606132"/>
+          <a:off x="0" y="3660529"/>
+          <a:ext cx="4286517" cy="5656932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,32 +817,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4482DD-C7A9-4488-B769-C91931618407}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.1640625" customWidth="1"/>
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="15"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -826,113 +855,112 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="16">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="33">
+        <f>48672+41606.3054170067</f>
+        <v>90278.30541700669</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="16">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="12">
-        <f>70328.67118428</f>
-        <v>70328.67118428</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="33">
+        <v>20157.71670645972</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="17">
-        <f>4.34781123</f>
-        <v>4.3478112299999996</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>12.0313</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="16">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12">
-        <v>11393.61407677</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>10.994398493277419</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="33">
+        <v>6732.5901362756103</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="18">
-        <v>226628.57</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.38</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>52</v>
-      </c>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="33">
+        <v>9381.28122601</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -940,22 +968,25 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="16">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="18">
-        <v>144963.185</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13"/>
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="33">
+        <f>30635+11983.85</f>
+        <v>42618.85</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -963,24 +994,24 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="16">
-      <c r="A7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="21">
-        <v>2230</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="13"/>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="33">
+        <v>368839.40715181082</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -988,24 +1019,28 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="16">
-      <c r="A8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="21">
-        <v>5664</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="13"/>
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="33">
+        <v>24335.351605378059</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>76732</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1013,28 +1048,27 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="16">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12">
-        <v>100000</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <f>B11</f>
-        <v>190000</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>1</v>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="33">
+        <v>13479.28387693245</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1078438</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1043,28 +1077,27 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="16">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12">
-        <f>15734.04</f>
-        <v>15734.04</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1373471.226</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>3</v>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="33">
+        <v>48092.001786537301</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="25">
+        <v>5197408</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1073,60 +1106,61 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="16">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="21">
-        <v>190000</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3222631</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3"/>
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="33">
+        <v>28279.926055017189</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-4.72</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="16">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="33">
+        <v>21455.50702769151</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12">
-        <f>3*65252.41879545</f>
-        <v>195757.25638635</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="18">
-        <v>4.6879999999999997</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>25</v>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1134,30 +1168,30 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="16">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12">
-        <v>50000</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>26</v>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="34">
+        <v>72144.512740536898</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="12">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1165,31 +1199,30 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="16">
-      <c r="A14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="12">
-        <f>1972.92*2</f>
-        <v>3945.84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="18">
-        <v>4.24</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>27</v>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="33">
+        <v>219930.29576217601</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="25">
+        <v>645370</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1197,31 +1230,31 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="16">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="12">
-        <f>SUM(B3:B14)</f>
-        <v>1016645.1766474</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="18">
-        <v>530887.91799999995</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>7</v>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="35">
+        <f>SUM(B2:B12)-B11</f>
+        <v>645370.29493410222</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="25">
+        <v>24138241</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1229,48 +1262,55 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="18">
-        <v>18886965.482000001</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="33">
+        <f>SUM(B2:B12)</f>
+        <v>673650.22098911938</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="24">
+        <v>28280</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="16">
-      <c r="A17" s="3"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="19">
-        <f>B9</f>
-        <v>100000</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>11</v>
-      </c>
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="33">
+        <f>SUM(B2:B14)</f>
+        <v>965725.02949183236</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1278,497 +1318,477 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="16">
-      <c r="A18" s="3"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-6.6230000000000002</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="16">
-      <c r="A19" s="3"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="18">
-        <v>6.5890000000000004</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="16">
-      <c r="A20" s="3"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="6"/>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="12">
+        <v>4.54</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="16">
-      <c r="A21" s="3"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="18">
-        <v>4.2759999999999998</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="6"/>
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="26">
+        <v>424057912</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="16">
-      <c r="A22" s="3"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="26">
+        <v>281681120</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="20">
-        <f>31578897.133+337811351</f>
-        <v>369390248.13300002</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="16">
-      <c r="A23" s="3"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="20">
-        <f xml:space="preserve"> 89715945.708+161356433</f>
-        <v>251072378.708</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="6"/>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="26">
+        <v>262912783</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="16">
-      <c r="A24" s="3"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="20">
-        <f>67993671.97+126739825</f>
-        <v>194733496.97</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="6"/>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="25">
+        <v>783.47989800000005</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="16">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="18">
-        <v>29788.594000000001</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="25">
+        <v>13164858.1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="16">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="18">
-        <v>35191097.240999997</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="25">
+        <v>170979.334</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="16">
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="18">
-        <v>9671.5550000000003</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="16">
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="17">
+        <v>-5.9349999999999996</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="16">
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="18">
-        <v>-5.9349999999999996</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="17">
+        <v>7674777.5659999996</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="16">
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="18">
-        <v>7674777.5659999996</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="17">
+        <v>10556863.425000001</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="16">
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="18">
-        <v>10556863.425000001</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="17">
+        <f>8127142.561</f>
+        <v>8127142.5609999998</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="16">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="18">
-        <f>8127142.561</f>
-        <v>8127142.5609999998</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="16">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="16">
+    <row r="34" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="26">
+        <v>51140939610</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="20">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="20">
-        <v>14088839309.283863</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="27">
+        <v>89987278</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="16">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="27">
+        <v>3256731209</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="16">
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="27">
+        <v>2621683</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="16">
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="16">
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="16">
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1776,16 +1796,16 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="16">
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1793,16 +1813,16 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="16">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1810,31 +1830,14 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="16">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
